--- a/uploads/standard/年假导入模板.xlsx
+++ b/uploads/standard/年假导入模板.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$906</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcMode="manual"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">社会工龄	</t>
   </si>
@@ -104,12 +104,31 @@
   <si>
     <t>身份证</t>
   </si>
+  <si>
+    <t>灰流晴</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源部</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：请删除此行，为确保导入成功和数据完整，请：1、在数据为0的地方填入0；2、开始工作日期和入司日期必须看清楚是否为正确的日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111111111111111</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,6 +218,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -236,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,6 +368,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y906"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -714,15 +773,87 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="Y2" s="31"/>
+    <row r="2" spans="1:25" s="32" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="33">
+        <v>36705</v>
+      </c>
+      <c r="D2" s="33">
+        <v>38169</v>
+      </c>
+      <c r="E2" s="34">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="34">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="32">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="32">
+        <v>7</v>
+      </c>
+      <c r="I2" s="32">
+        <v>10</v>
+      </c>
+      <c r="J2" s="32">
+        <v>0</v>
+      </c>
+      <c r="K2" s="32">
+        <v>0</v>
+      </c>
+      <c r="L2" s="32">
+        <v>0</v>
+      </c>
+      <c r="M2" s="32">
+        <v>0</v>
+      </c>
+      <c r="N2" s="32">
+        <v>0</v>
+      </c>
+      <c r="O2" s="32">
+        <v>0</v>
+      </c>
+      <c r="P2" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>0</v>
+      </c>
+      <c r="R2" s="32">
+        <v>0</v>
+      </c>
+      <c r="S2" s="32">
+        <v>0</v>
+      </c>
+      <c r="T2" s="32">
+        <v>0</v>
+      </c>
+      <c r="U2" s="32">
+        <v>0</v>
+      </c>
+      <c r="V2" s="32">
+        <v>0</v>
+      </c>
+      <c r="W2" s="32">
+        <v>0</v>
+      </c>
+      <c r="X2" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
